--- a/sim3.xlsx
+++ b/sim3.xlsx
@@ -40,10 +40,10 @@
     <t>12km_pacerunnning</t>
   </si>
   <si>
-    <t>2000m_interval×3</t>
+    <t>1000m_interval×5</t>
   </si>
   <si>
-    <t>1000m_interval×5</t>
+    <t>10km_pacerunnning</t>
   </si>
 </sst>
 </file>
@@ -438,16 +438,16 @@
         <v>1.5</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>26.4</v>
+        <v>28.05</v>
       </c>
       <c r="F2">
-        <v>-52.8</v>
+        <v>-56.1</v>
       </c>
       <c r="G2">
-        <v>-26.4</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>33.51980383359345</v>
+        <v>42.83354157319305</v>
       </c>
       <c r="F3">
-        <v>-64.79476880966942</v>
+        <v>-83.28194186027376</v>
       </c>
       <c r="G3">
-        <v>-31.27496497607597</v>
+        <v>-40.44840028708072</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,13 +487,13 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>78.98313483045139</v>
+        <v>88.09218336810281</v>
       </c>
       <c r="F4">
-        <v>-153.0159588149546</v>
+        <v>-170.3108383372832</v>
       </c>
       <c r="G4">
-        <v>-74.03282398450317</v>
+        <v>-82.21865496918039</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,16 +507,16 @@
         <v>1.5</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>88.79731240471656</v>
+        <v>114.2061702211121</v>
       </c>
       <c r="F5">
-        <v>-166.2474982927003</v>
+        <v>-215.4269788911191</v>
       </c>
       <c r="G5">
-        <v>-77.45018588798376</v>
+        <v>-101.220808670007</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,19 +527,19 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>103.3458025469733</v>
+        <v>118.2962466551173</v>
       </c>
       <c r="F6">
-        <v>-188.5256958968531</v>
+        <v>-214.7334435169007</v>
       </c>
       <c r="G6">
-        <v>-85.17989334987976</v>
+        <v>-96.43719686178348</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,19 +550,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>150.5745586662172</v>
+        <v>143.1964349577846</v>
       </c>
       <c r="F7">
-        <v>-275.3671053694527</v>
+        <v>-255.884636329953</v>
       </c>
       <c r="G7">
-        <v>-124.7925467032355</v>
+        <v>-112.6882013721684</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>153.8653623898348</v>
+        <v>157.6493886469667</v>
       </c>
       <c r="F8">
-        <v>-270.8078505210605</v>
+        <v>-274.5818646489463</v>
       </c>
       <c r="G8">
-        <v>-116.9424881312258</v>
+        <v>-116.9324760019796</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,16 +599,16 @@
         <v>1.5</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>163.6838437003902</v>
+        <v>185.5347079299476</v>
       </c>
       <c r="F9">
-        <v>-279.7426357638503</v>
+        <v>-319.5732523420955</v>
       </c>
       <c r="G9">
-        <v>-116.0587920634601</v>
+        <v>-134.0385444121479</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,22 +616,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>206.286542995176</v>
+        <v>225.4571879952387</v>
       </c>
       <c r="F10">
-        <v>-354.1011897682376</v>
+        <v>-386.9630097953021</v>
       </c>
       <c r="G10">
-        <v>-147.8146467730617</v>
+        <v>-161.5058218000634</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,19 +642,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>212.75295733506</v>
+        <v>238.652286625404</v>
       </c>
       <c r="F11">
-        <v>-353.2641364361928</v>
+        <v>-398.3065986123635</v>
       </c>
       <c r="G11">
-        <v>-140.5111791011327</v>
+        <v>-159.6543119869595</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,13 +671,13 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>221.2772584624291</v>
+        <v>246.6073948903958</v>
       </c>
       <c r="F12">
-        <v>-356.8810671972207</v>
+        <v>-399.0186051860509</v>
       </c>
       <c r="G12">
-        <v>-135.6038087347916</v>
+        <v>-152.4112102956551</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -694,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>243.9142199369423</v>
+        <v>268.6876727266491</v>
       </c>
       <c r="F13">
-        <v>-388.8647311885381</v>
+        <v>-428.2846923091239</v>
       </c>
       <c r="G13">
-        <v>-144.9505112515959</v>
+        <v>-159.5970195824748</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,16 +714,16 @@
         <v>1.5</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>263.3036860225689</v>
+        <v>277.6326894813196</v>
       </c>
       <c r="F14">
-        <v>-413.2856722593198</v>
+        <v>-430.3633212373026</v>
       </c>
       <c r="G14">
-        <v>-149.981986236751</v>
+        <v>-152.7306317559829</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>267.4170273395761</v>
+        <v>292.4311204621453</v>
       </c>
       <c r="F15">
-        <v>-406.4316332120816</v>
+        <v>-444.4078931189025</v>
       </c>
       <c r="G15">
-        <v>-139.0146058725055</v>
+        <v>-151.9767726567572</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -754,22 +754,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>307.7399692299452</v>
+        <v>330.0043244382776</v>
       </c>
       <c r="F16">
-        <v>-472.6196318077108</v>
+        <v>-503.7466882159179</v>
       </c>
       <c r="G16">
-        <v>-164.8796625777656</v>
+        <v>-173.7423637776403</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>313.0767286845936</v>
+        <v>339.2517773194643</v>
       </c>
       <c r="F17">
-        <v>-466.3389668191848</v>
+        <v>-504.2585455125358</v>
       </c>
       <c r="G17">
-        <v>-153.2622381345912</v>
+        <v>-165.0067681930715</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>317.1962014961882</v>
+        <v>338.3959977494885</v>
       </c>
       <c r="F18">
-        <v>-458.2633608517752</v>
+        <v>-484.9373915888611</v>
       </c>
       <c r="G18">
-        <v>-141.0671593555871</v>
+        <v>-146.5413938393726</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -826,19 +826,19 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>359.7251401285061</v>
+        <v>358.4590257562472</v>
       </c>
       <c r="F19">
-        <v>-527.7085750609006</v>
+        <v>-508.6623171343925</v>
       </c>
       <c r="G19">
-        <v>-167.9834349323945</v>
+        <v>-150.2032913781453</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -849,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>367.2194148534069</v>
+        <v>367.0811260381562</v>
       </c>
       <c r="F20">
-        <v>-524.4750580305542</v>
+        <v>-508.8571507015921</v>
       </c>
       <c r="G20">
-        <v>-157.2556431771473</v>
+        <v>-141.7760246634359</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -872,19 +872,19 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>383.8989869470432</v>
+        <v>377.7137373227192</v>
       </c>
       <c r="F21">
-        <v>-540.1500802624466</v>
+        <v>-513.439418864626</v>
       </c>
       <c r="G21">
-        <v>-156.2510933154034</v>
+        <v>-135.7256815419067</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,22 +892,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>421.6619899578754</v>
+        <v>413.4126743532597</v>
       </c>
       <c r="F22">
-        <v>-597.7141730509078</v>
+        <v>-568.3261627384322</v>
       </c>
       <c r="G22">
-        <v>-176.0521830930324</v>
+        <v>-154.9134883851725</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>423.3950706361741</v>
+        <v>415.3270512925158</v>
       </c>
       <c r="F23">
-        <v>-581.1657839415213</v>
+        <v>-553.6730950180192</v>
       </c>
       <c r="G23">
-        <v>-157.7707133053473</v>
+        <v>-138.3460437255034</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -941,19 +941,19 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>429.4900631794113</v>
+        <v>421.0493557256654</v>
       </c>
       <c r="F24">
-        <v>-574.4846503386692</v>
+        <v>-547.6650478134317</v>
       </c>
       <c r="G24">
-        <v>-144.9945871592579</v>
+        <v>-126.6156920877663</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,7 +961,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -970,13 +970,13 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>447.5511052943203</v>
+        <v>439.2959003446056</v>
       </c>
       <c r="F25">
-        <v>-592.4344031852715</v>
+        <v>-567.3444776871403</v>
       </c>
       <c r="G25">
-        <v>-144.8832978909512</v>
+        <v>-128.0485773425347</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -987,19 +987,19 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>454.2152175836091</v>
+        <v>456.04143832574</v>
       </c>
       <c r="F26">
-        <v>-587.2265223528592</v>
+        <v>-583.5547217954345</v>
       </c>
       <c r="G26">
-        <v>-133.0113047692501</v>
+        <v>-127.5132834696945</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1010,19 +1010,19 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>464.0328718273392</v>
+        <v>462.518957483349</v>
       </c>
       <c r="F27">
-        <v>-588.9545134569253</v>
+        <v>-578.9195183878114</v>
       </c>
       <c r="G27">
-        <v>-124.9216416295861</v>
+        <v>-116.4005609044624</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1039,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>500.0347622318527</v>
+        <v>498.5541193764478</v>
       </c>
       <c r="F28">
-        <v>-643.3710612048515</v>
+        <v>-633.9832532229376</v>
       </c>
       <c r="G28">
-        <v>-143.3362989729987</v>
+        <v>-135.4291338464898</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>500.5954345001508</v>
+        <v>506.2973319215839</v>
       </c>
       <c r="F29">
-        <v>-624.9781217243431</v>
+        <v>-630.495761783127</v>
       </c>
       <c r="G29">
-        <v>-124.3826872241922</v>
+        <v>-124.1984298615431</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1085,13 +1085,13 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>499.4937848025141</v>
+        <v>505.0703708972367</v>
       </c>
       <c r="F30">
-        <v>-604.4713983650636</v>
+        <v>-609.6331891809463</v>
       </c>
       <c r="G30">
-        <v>-104.9776135625494</v>
+        <v>-104.5628182837095</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1099,7 +1099,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1108,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>516.0163462007597</v>
+        <v>521.470374951778</v>
       </c>
       <c r="F31">
-        <v>-620.4872154223466</v>
+        <v>-625.3161067858769</v>
       </c>
       <c r="G31">
-        <v>-104.4708692215869</v>
+        <v>-103.8457318340988</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1125,19 +1125,19 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>521.1757891602751</v>
+        <v>538.0599540259595</v>
       </c>
       <c r="F32">
-        <v>-613.4701241504234</v>
+        <v>-641.0875857509649</v>
       </c>
       <c r="G32">
-        <v>-92.29433499014829</v>
+        <v>-103.0276317250053</v>
       </c>
     </row>
   </sheetData>
